--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bin/Documents/2_UIUC/9_2019_Summer/CS 498 Data Visualization/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bin/Documents/2_UIUC/9_2019_Summer/CS 498 Data Visualization/Final Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D1715A-4BE6-5B48-88AD-260FA873C85F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778FDA5A-830E-484B-AD3C-C67D0A648C21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42240" yWindow="2100" windowWidth="27240" windowHeight="16440" xr2:uid="{A572F254-C284-8D49-A85D-A8E3AA2466E6}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>CO2 Emissions</t>
   </si>
   <si>
-    <t>GDP per Capita</t>
-  </si>
-  <si>
     <t>Above Threshold?</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>Lending Interest</t>
   </si>
   <si>
-    <t>Life Expectancy Female</t>
-  </si>
-  <si>
-    <t>Life Expectancy Male</t>
-  </si>
-  <si>
     <t>Cell Phone Subscription Rate</t>
   </si>
   <si>
@@ -871,6 +862,15 @@
   </si>
   <si>
     <t>$631B</t>
+  </si>
+  <si>
+    <t>LifeExpectancyFemale</t>
+  </si>
+  <si>
+    <t>LifeExpectancyMale</t>
+  </si>
+  <si>
+    <t>GDPperCapita</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -934,6 +934,8 @@
     <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,8 +1253,8 @@
   <dimension ref="A1:AD157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,85 +1281,85 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1367,17 +1369,17 @@
       <c r="C2" s="10">
         <v>327984</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>3694</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2" s="9">
         <v>36861</v>
@@ -1386,7 +1388,7 @@
         <v>187442</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M2" s="6">
         <v>7.1999999999999995E-2</v>
@@ -1431,13 +1433,13 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1447,17 +1449,17 @@
       <c r="C3" s="10">
         <v>337434</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>3128</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H3" s="9">
         <v>37226</v>
@@ -1466,7 +1468,7 @@
         <v>190712</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M3" s="6">
         <v>7.2999999999999995E-2</v>
@@ -1511,13 +1513,13 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1527,17 +1529,17 @@
       <c r="C4" s="10">
         <v>332267</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>2811</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H4" s="9">
         <v>37591</v>
@@ -1546,7 +1548,7 @@
         <v>195759</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M4" s="6">
         <v>7.1999999999999995E-2</v>
@@ -1591,13 +1593,13 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1607,17 +1609,17 @@
       <c r="C5" s="10">
         <v>321622</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>3040</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" s="9">
         <v>37956</v>
@@ -1629,7 +1631,7 @@
         <v>198976</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M5" s="6">
         <v>7.0000000000000007E-2</v>
@@ -1674,13 +1676,13 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1690,17 +1692,17 @@
       <c r="C6" s="10">
         <v>337826</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="11">
         <v>3607</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" s="9">
         <v>38322</v>
@@ -1712,7 +1714,7 @@
         <v>210042</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M6" s="6">
         <v>7.0999999999999994E-2</v>
@@ -1757,13 +1759,13 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1776,17 +1778,17 @@
       <c r="C7" s="10">
         <v>347309</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <v>4739</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="9">
         <v>38687</v>
@@ -1798,7 +1800,7 @@
         <v>215332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M7" s="6">
         <v>8.2000000000000003E-2</v>
@@ -1846,13 +1848,13 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1865,17 +1867,17 @@
       <c r="C8" s="10">
         <v>347668</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>5788</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" s="9">
         <v>39052</v>
@@ -1887,7 +1889,7 @@
         <v>222818</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M8" s="6">
         <v>8.5000000000000006E-2</v>
@@ -1935,13 +1937,13 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1954,17 +1956,17 @@
       <c r="C9" s="10">
         <v>363213</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <v>7194</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9">
         <v>39417</v>
@@ -1976,7 +1978,7 @@
         <v>235460</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M9" s="6">
         <v>8.5000000000000006E-2</v>
@@ -2024,13 +2026,13 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD9" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2043,17 +2045,17 @@
       <c r="C10" s="10">
         <v>387675</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>8623</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10" s="9">
         <v>39783</v>
@@ -2065,7 +2067,7 @@
         <v>248594</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M10" s="6">
         <v>8.3000000000000004E-2</v>
@@ -2113,13 +2115,13 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2132,17 +2134,17 @@
       <c r="C11" s="10">
         <v>367147</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="11">
         <v>8373</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11" s="9">
         <v>40148</v>
@@ -2154,7 +2156,7 @@
         <v>240464</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M11" s="6">
         <v>8.7999999999999995E-2</v>
@@ -2202,13 +2204,13 @@
         <v>0.84</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2221,17 +2223,17 @@
       <c r="C12" s="10">
         <v>419754</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <v>10978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H12" s="9">
         <v>40513</v>
@@ -2243,7 +2245,7 @@
         <v>265887</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M12" s="6">
         <v>0.09</v>
@@ -2291,13 +2293,13 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2307,17 +2309,17 @@
       <c r="B13" s="6">
         <v>0.66300000000000003</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="11">
         <v>12576</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13" s="9">
         <v>40878</v>
@@ -2329,7 +2331,7 @@
         <v>270028</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M13" s="6">
         <v>8.8999999999999996E-2</v>
@@ -2377,13 +2379,13 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="AB13" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2393,17 +2395,17 @@
       <c r="B14" s="6">
         <v>0.68500000000000005</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="11">
         <v>11320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H14" s="9">
         <v>41244</v>
@@ -2415,7 +2417,7 @@
         <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M14" s="6">
         <v>9.2999999999999999E-2</v>
@@ -2463,13 +2465,13 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD14" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -2479,17 +2481,17 @@
       <c r="C15" s="4">
         <v>534484</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="12">
         <v>24032</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="3">
         <v>36861</v>
@@ -2498,7 +2500,7 @@
         <v>251450</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M15" s="1">
         <v>8.7999999999999995E-2</v>
@@ -2543,13 +2545,13 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="AB15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AD15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -2559,17 +2561,17 @@
       <c r="C16" s="4">
         <v>525690</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="12">
         <v>23574</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H16" s="3">
         <v>37226</v>
@@ -2578,7 +2580,7 @@
         <v>247878</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M16" s="1">
         <v>9.2999999999999999E-2</v>
@@ -2623,13 +2625,13 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="AB16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AD16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -2639,17 +2641,17 @@
       <c r="C17" s="4">
         <v>519163</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="12">
         <v>23995</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H17" s="3">
         <v>37591</v>
@@ -2658,7 +2660,7 @@
         <v>248220</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M17" s="1">
         <v>9.6000000000000002E-2</v>
@@ -2703,13 +2705,13 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="AB17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AD17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
@@ -2719,17 +2721,17 @@
       <c r="C18" s="4">
         <v>553185</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="12">
         <v>28026</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H18" s="3">
         <v>37956</v>
@@ -2741,7 +2743,7 @@
         <v>262038</v>
       </c>
       <c r="L18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M18" s="1">
         <v>9.8000000000000004E-2</v>
@@ -2786,13 +2788,13 @@
         <v>0.8</v>
       </c>
       <c r="AB18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
@@ -2802,17 +2804,17 @@
       <c r="C19" s="4">
         <v>552349</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="12">
         <v>31830</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H19" s="3">
         <v>38322</v>
@@ -2824,7 +2826,7 @@
         <v>267619</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M19" s="1">
         <v>9.8000000000000004E-2</v>
@@ -2869,13 +2871,13 @@
         <v>0.8</v>
       </c>
       <c r="AB19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
@@ -2888,17 +2890,17 @@
       <c r="C20" s="4">
         <v>563072</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="12">
         <v>36029</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H20" s="3">
         <v>38687</v>
@@ -2910,7 +2912,7 @@
         <v>272206</v>
       </c>
       <c r="L20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M20" s="1">
         <v>9.8000000000000004E-2</v>
@@ -2958,13 +2960,13 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="AB20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
@@ -2977,17 +2979,17 @@
       <c r="C21" s="4">
         <v>550233</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="12">
         <v>40245</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H21" s="3">
         <v>39052</v>
@@ -2999,7 +3001,7 @@
         <v>268302</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M21" s="1">
         <v>0.1</v>
@@ -3047,13 +3049,13 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="AB21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
@@ -3066,17 +3068,17 @@
       <c r="C22" s="4">
         <v>560802</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="12">
         <v>44329</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H22" s="3">
         <v>39417</v>
@@ -3088,7 +3090,7 @@
         <v>271728</v>
       </c>
       <c r="L22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M22" s="1">
         <v>0.1</v>
@@ -3136,13 +3138,13 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="AB22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -3155,17 +3157,17 @@
       <c r="C23" s="4">
         <v>544975</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="12">
         <v>46399</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H23" s="3">
         <v>39783</v>
@@ -3177,7 +3179,7 @@
         <v>264724</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M23" s="1">
         <v>0.10299999999999999</v>
@@ -3225,13 +3227,13 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="AB23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
@@ -3244,17 +3246,17 @@
       <c r="C24" s="4">
         <v>513937</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="12">
         <v>40764</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H24" s="3">
         <v>40148</v>
@@ -3266,7 +3268,7 @@
         <v>251326</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M24" s="1">
         <v>0.114</v>
@@ -3314,13 +3316,13 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="AB24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
@@ -3333,17 +3335,17 @@
       <c r="C25" s="4">
         <v>499137</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="12">
         <v>47465</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H25" s="3">
         <v>40513</v>
@@ -3355,7 +3357,7 @@
         <v>250992</v>
       </c>
       <c r="L25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M25" s="1">
         <v>0.114</v>
@@ -3403,13 +3405,13 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="AB25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
@@ -3419,17 +3421,17 @@
       <c r="B26" s="1">
         <v>0.26100000000000001</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="12">
         <v>51791</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H26" s="3">
         <v>40878</v>
@@ -3441,7 +3443,7 @@
         <v>251845</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M26" s="1">
         <v>0.109</v>
@@ -3489,13 +3491,13 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="AB26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AD26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
@@ -3505,17 +3507,17 @@
       <c r="B27" s="1">
         <v>0.246</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="12">
         <v>52409</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="3">
         <v>41244</v>
@@ -3530,7 +3532,7 @@
         <v>252651</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M27" s="1">
         <v>0.109</v>
@@ -3578,13 +3580,13 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="AB27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3594,17 +3596,17 @@
       <c r="C28" s="10">
         <v>3405180</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="11">
         <v>949</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H28" s="9">
         <v>36861</v>
@@ -3613,7 +3615,7 @@
         <v>1161353</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M28" s="6">
         <v>4.5999999999999999E-2</v>
@@ -3658,13 +3660,13 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="AB28" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC28" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AD28" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3674,17 +3676,17 @@
       <c r="C29" s="10">
         <v>3487566</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="11">
         <v>1042</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H29" s="9">
         <v>37226</v>
@@ -3693,7 +3695,7 @@
         <v>1186797</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M29" s="6">
         <v>4.5999999999999999E-2</v>
@@ -3738,13 +3740,13 @@
         <v>0.371</v>
       </c>
       <c r="AB29" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC29" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AD29" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3754,17 +3756,17 @@
       <c r="C30" s="10">
         <v>3694242</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="11">
         <v>1135</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H30" s="9">
         <v>37591</v>
@@ -3773,7 +3775,7 @@
         <v>1253831</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M30" s="6">
         <v>4.8000000000000001E-2</v>
@@ -3818,13 +3820,13 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="AB30" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC30" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3834,17 +3836,17 @@
       <c r="C31" s="10">
         <v>4525177</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="11">
         <v>1274</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H31" s="9">
         <v>37956</v>
@@ -3856,7 +3858,7 @@
         <v>1427554</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M31" s="6">
         <v>4.8000000000000001E-2</v>
@@ -3901,13 +3903,13 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="AB31" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC31" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AD31" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3917,17 +3919,17 @@
       <c r="C32" s="10">
         <v>5288166</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="11">
         <v>1490</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H32" s="9">
         <v>38322</v>
@@ -3939,7 +3941,7 @@
         <v>1639854</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M32" s="6">
         <v>4.7E-2</v>
@@ -3984,13 +3986,13 @@
         <v>0.41099999999999998</v>
       </c>
       <c r="AB32" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC32" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AD32" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4003,17 +4005,17 @@
       <c r="C33" s="10">
         <v>5790017</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="11">
         <v>1731</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H33" s="9">
         <v>38687</v>
@@ -4025,7 +4027,7 @@
         <v>1775677</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M33" s="6">
         <v>4.7E-2</v>
@@ -4073,13 +4075,13 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="AB33" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC33" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AD33" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4092,17 +4094,17 @@
       <c r="C34" s="10">
         <v>6414463</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="11">
         <v>2069</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H34" s="9">
         <v>39052</v>
@@ -4114,7 +4116,7 @@
         <v>1938944</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M34" s="6">
         <v>4.5999999999999999E-2</v>
@@ -4162,13 +4164,13 @@
         <v>0.439</v>
       </c>
       <c r="AB34" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC34" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AD34" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4181,17 +4183,17 @@
       <c r="C35" s="10">
         <v>6791805</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="11">
         <v>2651</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H35" s="9">
         <v>39417</v>
@@ -4203,7 +4205,7 @@
         <v>2044606</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M35" s="6">
         <v>4.3999999999999997E-2</v>
@@ -4251,13 +4253,13 @@
         <v>0.45200000000000001</v>
       </c>
       <c r="AB35" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC35" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD35" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4270,17 +4272,17 @@
       <c r="C36" s="10">
         <v>7035444</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="11">
         <v>3414</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H36" s="9">
         <v>39783</v>
@@ -4292,7 +4294,7 @@
         <v>2120814</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M36" s="6">
         <v>4.5999999999999999E-2</v>
@@ -4340,13 +4342,13 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="AB36" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC36" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AD36" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4359,17 +4361,17 @@
       <c r="C37" s="10">
         <v>7692211</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="11">
         <v>3749</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H37" s="9">
         <v>40148</v>
@@ -4381,7 +4383,7 @@
         <v>2286137</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M37" s="6">
         <v>5.0999999999999997E-2</v>
@@ -4429,13 +4431,13 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="AB37" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC37" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AD37" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4448,17 +4450,17 @@
       <c r="C38" s="10">
         <v>8286892</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="11">
         <v>4433</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H38" s="9">
         <v>40513</v>
@@ -4470,7 +4472,7 @@
         <v>2516731</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M38" s="6">
         <v>0.05</v>
@@ -4518,13 +4520,13 @@
         <v>0.49199999999999999</v>
       </c>
       <c r="AB38" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC38" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AD38" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4534,17 +4536,17 @@
       <c r="B39" s="6">
         <v>0.63500000000000001</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="11">
         <v>5447</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H39" s="9">
         <v>40878</v>
@@ -4556,7 +4558,7 @@
         <v>2727728</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M39" s="6">
         <v>5.0999999999999997E-2</v>
@@ -4604,13 +4606,13 @@
         <v>0.50600000000000001</v>
       </c>
       <c r="AB39" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC39" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AD39" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4620,17 +4622,17 @@
       <c r="B40" s="6">
         <v>0.63700000000000001</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="11">
         <v>6093</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H40" s="9">
         <v>41244</v>
@@ -4642,7 +4644,7 @@
         <v>99</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M40" s="6">
         <v>5.3999999999999999E-2</v>
@@ -4690,13 +4692,13 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="AB40" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC40" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
@@ -4706,17 +4708,17 @@
       <c r="C41" s="4">
         <v>365560</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="12">
         <v>21775</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H41" s="3">
         <v>36861</v>
@@ -4725,7 +4727,7 @@
         <v>251981</v>
       </c>
       <c r="L41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M41" s="1">
         <v>0.10100000000000001</v>
@@ -4770,13 +4772,13 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="AB41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AD41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
@@ -4786,17 +4788,17 @@
       <c r="C42" s="4">
         <v>385827</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="12">
         <v>21812</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H42" s="3">
         <v>37226</v>
@@ -4805,7 +4807,7 @@
         <v>260565</v>
       </c>
       <c r="L42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M42" s="1">
         <v>0.10199999999999999</v>
@@ -4850,13 +4852,13 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="AB42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AD42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
@@ -4866,17 +4868,17 @@
       <c r="C43" s="4">
         <v>380840</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="12">
         <v>23494</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H43" s="3">
         <v>37591</v>
@@ -4885,7 +4887,7 @@
         <v>261182</v>
       </c>
       <c r="L43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M43" s="1">
         <v>0.106</v>
@@ -4930,13 +4932,13 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="AB43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
@@ -4946,17 +4948,17 @@
       <c r="C44" s="4">
         <v>387591</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="12">
         <v>28794</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H44" s="3">
         <v>37956</v>
@@ -4968,7 +4970,7 @@
         <v>265879</v>
       </c>
       <c r="L44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M44" s="1">
         <v>0.108</v>
@@ -5013,13 +5015,13 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="AB44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AD44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
@@ -5029,17 +5031,17 @@
       <c r="C45" s="4">
         <v>390103</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="12">
         <v>32785</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H45" s="3">
         <v>38322</v>
@@ -5051,7 +5053,7 @@
         <v>269777</v>
       </c>
       <c r="L45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M45" s="1">
         <v>0.11</v>
@@ -5096,13 +5098,13 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="AB45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AD45" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
@@ -5115,17 +5117,17 @@
       <c r="C46" s="4">
         <v>392072</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="12">
         <v>33819</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H46" s="3">
         <v>38687</v>
@@ -5137,7 +5139,7 @@
         <v>270660</v>
       </c>
       <c r="L46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M46" s="1">
         <v>0.11</v>
@@ -5182,13 +5184,13 @@
         <v>0.77100000000000002</v>
       </c>
       <c r="AB46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AD46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
@@ -5201,17 +5203,17 @@
       <c r="C47" s="4">
         <v>382582</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="12">
         <v>35457</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H47" s="3">
         <v>39052</v>
@@ -5223,7 +5225,7 @@
         <v>266793</v>
       </c>
       <c r="L47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M47" s="1">
         <v>0.11</v>
@@ -5268,13 +5270,13 @@
         <v>0.77400000000000002</v>
       </c>
       <c r="AB47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AD47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
@@ -5287,17 +5289,17 @@
       <c r="C48" s="4">
         <v>375882</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="12">
         <v>40342</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H48" s="3">
         <v>39417</v>
@@ -5309,7 +5311,7 @@
         <v>263542</v>
       </c>
       <c r="L48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M48" s="1">
         <v>0.109</v>
@@ -5354,13 +5356,13 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="AB48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AD48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
@@ -5373,17 +5375,17 @@
       <c r="C49" s="4">
         <v>372564</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="12">
         <v>43992</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H49" s="3">
         <v>39783</v>
@@ -5395,7 +5397,7 @@
         <v>264803</v>
       </c>
       <c r="L49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M49" s="1">
         <v>0.11</v>
@@ -5440,13 +5442,13 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="AB49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AD49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
@@ -5459,17 +5461,17 @@
       <c r="C50" s="4">
         <v>356924</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="12">
         <v>40488</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H50" s="3">
         <v>40148</v>
@@ -5481,7 +5483,7 @@
         <v>253469</v>
       </c>
       <c r="L50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M50" s="1">
         <v>0.11700000000000001</v>
@@ -5526,13 +5528,13 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="AB50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC50" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AD50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
@@ -5545,17 +5547,17 @@
       <c r="C51" s="4">
         <v>361273</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="12">
         <v>39448</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H51" s="3">
         <v>40513</v>
@@ -5567,7 +5569,7 @@
         <v>261157</v>
       </c>
       <c r="L51" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M51" s="1">
         <v>0.11700000000000001</v>
@@ -5612,13 +5614,13 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="AB51" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AD51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
@@ -5628,17 +5630,17 @@
       <c r="B52" s="1">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="12">
         <v>42578</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H52" s="3">
         <v>40878</v>
@@ -5650,7 +5652,7 @@
         <v>252827</v>
       </c>
       <c r="L52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M52" s="1">
         <v>0.11600000000000001</v>
@@ -5695,13 +5697,13 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="AB52" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC52" t="s">
         <v>118</v>
       </c>
-      <c r="AC52" t="s">
-        <v>121</v>
-      </c>
       <c r="AD52" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
@@ -5711,17 +5713,17 @@
       <c r="B53" s="1">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="12">
         <v>39759</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H53" s="3">
         <v>41244</v>
@@ -5736,7 +5738,7 @@
         <v>251706</v>
       </c>
       <c r="L53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M53" s="1">
         <v>0.11700000000000001</v>
@@ -5781,13 +5783,13 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="AB53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AD53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5797,17 +5799,17 @@
       <c r="C54" s="10">
         <v>829978</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="11">
         <v>22946</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H54" s="9">
         <v>36861</v>
@@ -5816,7 +5818,7 @@
         <v>336584</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M54" s="6">
         <v>0.104</v>
@@ -5861,13 +5863,13 @@
         <v>0.73099999999999998</v>
       </c>
       <c r="AB54" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC54" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AD54" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5877,17 +5879,17 @@
       <c r="C55" s="10">
         <v>853663</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="11">
         <v>22840</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H55" s="9">
         <v>37226</v>
@@ -5896,7 +5898,7 @@
         <v>346679</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M55" s="6">
         <v>0.105</v>
@@ -5941,13 +5943,13 @@
         <v>0.73099999999999998</v>
       </c>
       <c r="AB55" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC55" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AD55" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5957,17 +5959,17 @@
       <c r="C56" s="10">
         <v>828771</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="11">
         <v>24326</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H56" s="9">
         <v>37591</v>
@@ -5976,7 +5978,7 @@
         <v>338553</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M56" s="6">
         <v>0.107</v>
@@ -6021,13 +6023,13 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="AB56" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC56" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD56" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6037,17 +6039,17 @@
       <c r="C57" s="10">
         <v>833406</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="11">
         <v>29367</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H57" s="9">
         <v>37956</v>
@@ -6059,7 +6061,7 @@
         <v>338070</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M57" s="6">
         <v>0.109</v>
@@ -6101,13 +6103,13 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="AB57" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC57" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AD57" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6117,17 +6119,17 @@
       <c r="C58" s="10">
         <v>825896</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="11">
         <v>33040</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H58" s="9">
         <v>38322</v>
@@ -6139,7 +6141,7 @@
         <v>340676</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M58" s="6">
         <v>0.107</v>
@@ -6181,13 +6183,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="AB58" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC58" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AD58" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6200,17 +6202,17 @@
       <c r="C59" s="10">
         <v>806703</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="11">
         <v>33543</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H59" s="9">
         <v>38687</v>
@@ -6222,7 +6224,7 @@
         <v>335185</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M59" s="6">
         <v>0.108</v>
@@ -6267,13 +6269,13 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="AB59" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC59" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD59" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6286,17 +6288,17 @@
       <c r="C60" s="10">
         <v>808860</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="11">
         <v>35238</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H60" s="9">
         <v>39052</v>
@@ -6308,7 +6310,7 @@
         <v>340492</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M60" s="6">
         <v>0.106</v>
@@ -6353,13 +6355,13 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="AB60" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC60" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AD60" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6372,17 +6374,17 @@
       <c r="C61" s="10">
         <v>784016</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="11">
         <v>40403</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H61" s="9">
         <v>39417</v>
@@ -6394,7 +6396,7 @@
         <v>330719</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M61" s="6">
         <v>0.105</v>
@@ -6439,13 +6441,13 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="AB61" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC61" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AD61" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6458,17 +6460,17 @@
       <c r="C62" s="10">
         <v>783359</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="11">
         <v>44132</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H62" s="9">
         <v>39783</v>
@@ -6480,7 +6482,7 @@
         <v>334634</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M62" s="6">
         <v>0.107</v>
@@ -6525,13 +6527,13 @@
         <v>0.73899999999999999</v>
       </c>
       <c r="AB62" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC62" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AD62" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6544,17 +6546,17 @@
       <c r="C63" s="10">
         <v>732249</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="11">
         <v>40270</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H63" s="9">
         <v>40148</v>
@@ -6566,7 +6568,7 @@
         <v>313249</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M63" s="6">
         <v>0.11799999999999999</v>
@@ -6611,13 +6613,13 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="AB63" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC63" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AD63" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6630,17 +6632,17 @@
       <c r="C64" s="10">
         <v>745384</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="11">
         <v>40408</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H64" s="9">
         <v>40513</v>
@@ -6652,7 +6654,7 @@
         <v>329769</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M64" s="6">
         <v>0.115</v>
@@ -6697,13 +6699,13 @@
         <v>0.74299999999999999</v>
       </c>
       <c r="AB64" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC64" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AD64" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6713,17 +6715,17 @@
       <c r="B65" s="6">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="11">
         <v>44355</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H65" s="9">
         <v>40878</v>
@@ -6735,7 +6737,7 @@
         <v>311770</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M65" s="6">
         <v>0.113</v>
@@ -6780,13 +6782,13 @@
         <v>0.745</v>
       </c>
       <c r="AB65" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC65" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AD65" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6796,17 +6798,17 @@
       <c r="B66" s="6">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="11">
         <v>42598</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H66" s="9">
         <v>41244</v>
@@ -6821,7 +6823,7 @@
         <v>307381</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M66" s="6">
         <v>0.113</v>
@@ -6866,13 +6868,13 @@
         <v>0.747</v>
       </c>
       <c r="AB66" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC66" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AD66" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
@@ -6882,17 +6884,17 @@
       <c r="C67" s="4">
         <v>1186663</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="12">
         <v>457</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H67" s="3">
         <v>36861</v>
@@ -6901,7 +6903,7 @@
         <v>457198</v>
       </c>
       <c r="L67" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M67" s="1">
         <v>4.2999999999999997E-2</v>
@@ -6946,13 +6948,13 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="AB67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC67" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AD67" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
@@ -6962,17 +6964,17 @@
       <c r="C68" s="4">
         <v>1203843</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="12">
         <v>466</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G68" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H68" s="3">
         <v>37226</v>
@@ -6981,7 +6983,7 @@
         <v>464501</v>
       </c>
       <c r="L68" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M68" s="1">
         <v>4.4999999999999998E-2</v>
@@ -7026,13 +7028,13 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="AB68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC68" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD68" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.2">
@@ -7042,17 +7044,17 @@
       <c r="C69" s="4">
         <v>1226791</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="12">
         <v>487</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H69" s="3">
         <v>37591</v>
@@ -7061,7 +7063,7 @@
         <v>477540</v>
       </c>
       <c r="L69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M69" s="1">
         <v>4.3999999999999997E-2</v>
@@ -7106,13 +7108,13 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="AB69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC69" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD69" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.2">
@@ -7122,17 +7124,17 @@
       <c r="C70" s="4">
         <v>1281914</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="12">
         <v>565</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G70" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H70" s="3">
         <v>37956</v>
@@ -7144,7 +7146,7 @@
         <v>489507</v>
       </c>
       <c r="L70" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M70" s="1">
         <v>4.2999999999999997E-2</v>
@@ -7189,13 +7191,13 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="AB70" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD70" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.2">
@@ -7205,17 +7207,17 @@
       <c r="C71" s="4">
         <v>1348525</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="12">
         <v>650</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H71" s="3">
         <v>38322</v>
@@ -7227,7 +7229,7 @@
         <v>519165</v>
       </c>
       <c r="L71" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M71" s="1">
         <v>4.4999999999999998E-2</v>
@@ -7272,13 +7274,13 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="AB71" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC71" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD71" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
@@ -7291,17 +7293,17 @@
       <c r="C72" s="4">
         <v>1411128</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="12">
         <v>740</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H72" s="3">
         <v>38687</v>
@@ -7313,7 +7315,7 @@
         <v>539388</v>
       </c>
       <c r="L72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M72" s="1">
         <v>4.2000000000000003E-2</v>
@@ -7361,13 +7363,13 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="AB72" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC72" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AD72" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.2">
@@ -7380,17 +7382,17 @@
       <c r="C73" s="4">
         <v>1504365</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="12">
         <v>830</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G73" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H73" s="3">
         <v>39052</v>
@@ -7402,7 +7404,7 @@
         <v>567182</v>
       </c>
       <c r="L73" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M73" s="1">
         <v>0.04</v>
@@ -7450,13 +7452,13 @@
         <v>0.29599999999999999</v>
       </c>
       <c r="AB73" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC73" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AD73" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
@@ -7469,17 +7471,17 @@
       <c r="C74" s="4">
         <v>1611404</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="12">
         <v>1069</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G74" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H74" s="3">
         <v>39417</v>
@@ -7491,7 +7493,7 @@
         <v>604659</v>
       </c>
       <c r="L74" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M74" s="1">
         <v>3.9E-2</v>
@@ -7539,13 +7541,13 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="AB74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.2">
@@ -7558,17 +7560,17 @@
       <c r="C75" s="4">
         <v>1811289</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="12">
         <v>1042</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H75" s="3">
         <v>39783</v>
@@ -7580,7 +7582,7 @@
         <v>632956</v>
       </c>
       <c r="L75" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M75" s="1">
         <v>3.9E-2</v>
@@ -7628,13 +7630,13 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="AB75" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC75" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD75" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.2">
@@ -7647,17 +7649,17 @@
       <c r="C76" s="4">
         <v>1982263</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="12">
         <v>1147</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G76" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H76" s="3">
         <v>40148</v>
@@ -7669,7 +7671,7 @@
         <v>698360</v>
       </c>
       <c r="L76" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M76" s="1">
         <v>3.9E-2</v>
@@ -7717,13 +7719,13 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="AB76" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC76" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.2">
@@ -7736,17 +7738,17 @@
       <c r="C77" s="4">
         <v>2008823</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="12">
         <v>1417</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H77" s="3">
         <v>40513</v>
@@ -7758,7 +7760,7 @@
         <v>723743</v>
       </c>
       <c r="L77" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M77" s="1">
         <v>3.6999999999999998E-2</v>
@@ -7806,13 +7808,13 @@
         <v>0.309</v>
       </c>
       <c r="AB77" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC77" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD77" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.2">
@@ -7822,17 +7824,17 @@
       <c r="B78" s="1">
         <v>0.629</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="12">
         <v>1540</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G78" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H78" s="3">
         <v>40878</v>
@@ -7844,7 +7846,7 @@
         <v>749447</v>
       </c>
       <c r="L78" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M78" s="1">
         <v>3.9E-2</v>
@@ -7892,13 +7894,13 @@
         <v>0.313</v>
       </c>
       <c r="AB78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC78" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD78" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.2">
@@ -7908,17 +7910,17 @@
       <c r="B79" s="1">
         <v>0.628</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="12">
         <v>1503</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G79" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H79" s="3">
         <v>41244</v>
@@ -7930,7 +7932,7 @@
         <v>131</v>
       </c>
       <c r="L79" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M79" s="1">
         <v>0.04</v>
@@ -7978,13 +7980,13 @@
         <v>0.316</v>
       </c>
       <c r="AB79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC79" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD79" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7994,14 +7996,15 @@
       <c r="C80" s="10">
         <v>72445</v>
       </c>
+      <c r="D80" s="11"/>
       <c r="E80" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H80" s="9">
         <v>36861</v>
@@ -8043,13 +8046,13 @@
         <v>0.68500000000000005</v>
       </c>
       <c r="AB80" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC80" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD80" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8059,14 +8062,15 @@
       <c r="C81" s="10">
         <v>85342</v>
       </c>
+      <c r="D81" s="11"/>
       <c r="E81" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H81" s="9">
         <v>37226</v>
@@ -8111,13 +8115,13 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="AB81" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC81" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD81" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8127,14 +8131,15 @@
       <c r="C82" s="10">
         <v>87260</v>
       </c>
+      <c r="D82" s="11"/>
       <c r="E82" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H82" s="9">
         <v>37591</v>
@@ -8182,13 +8187,13 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="AB82" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC82" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD82" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8198,14 +8203,15 @@
       <c r="C83" s="10">
         <v>91118</v>
       </c>
+      <c r="D83" s="11"/>
       <c r="E83" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H83" s="9">
         <v>37956</v>
@@ -8253,7 +8259,7 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="AB83" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8263,17 +8269,17 @@
       <c r="C84" s="10">
         <v>114084</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="11">
         <v>1373</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H84" s="9">
         <v>38322</v>
@@ -8285,7 +8291,7 @@
         <v>26901</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M84" s="6">
         <v>5.6000000000000001E-2</v>
@@ -8330,7 +8336,7 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="AB84" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8343,17 +8349,17 @@
       <c r="C85" s="10">
         <v>114770</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="11">
         <v>1825</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H85" s="9">
         <v>38687</v>
@@ -8365,7 +8371,7 @@
         <v>26866</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M85" s="6">
         <v>4.1000000000000002E-2</v>
@@ -8413,13 +8419,13 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="AB85" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC85" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD85" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8432,17 +8438,17 @@
       <c r="C86" s="10">
         <v>99544</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="11">
         <v>2321</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H86" s="9">
         <v>39052</v>
@@ -8454,7 +8460,7 @@
         <v>21503</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M86" s="6">
         <v>0.03</v>
@@ -8502,13 +8508,13 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="AB86" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC86" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD86" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8521,17 +8527,17 @@
       <c r="C87" s="10">
         <v>62834</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="11">
         <v>3091</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H87" s="9">
         <v>39417</v>
@@ -8543,7 +8549,7 @@
         <v>23696</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M87" s="6">
         <v>3.6999999999999998E-2</v>
@@ -8591,13 +8597,13 @@
         <v>0.68899999999999995</v>
       </c>
       <c r="AB87" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC87" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AD87" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8610,17 +8616,17 @@
       <c r="C88" s="10">
         <v>94444</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="11">
         <v>4472</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H88" s="9">
         <v>39783</v>
@@ -8632,7 +8638,7 @@
         <v>28806</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M88" s="6">
         <v>3.9E-2</v>
@@ -8680,13 +8686,13 @@
         <v>0.68899999999999995</v>
       </c>
       <c r="AB88" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC88" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AD88" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8699,17 +8705,17 @@
       <c r="C89" s="10">
         <v>106651</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="11">
         <v>3702</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H89" s="9">
         <v>40148</v>
@@ -8721,7 +8727,7 @@
         <v>32846</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M89" s="6">
         <v>4.5999999999999999E-2</v>
@@ -8769,13 +8775,13 @@
         <v>0.69</v>
       </c>
       <c r="AB89" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC89" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AD89" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8788,17 +8794,17 @@
       <c r="C90" s="10">
         <v>114667</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="11">
         <v>4613</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H90" s="9">
         <v>40513</v>
@@ -8810,7 +8816,7 @@
         <v>37845</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M90" s="6">
         <v>3.1E-2</v>
@@ -8858,13 +8864,13 @@
         <v>0.69</v>
       </c>
       <c r="AB90" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC90" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD90" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8874,17 +8880,17 @@
       <c r="B91" s="6">
         <v>0.27800000000000002</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="11">
         <v>6019</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H91" s="9">
         <v>40878</v>
@@ -8896,7 +8902,7 @@
         <v>40220</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M91" s="6">
         <v>2.7E-2</v>
@@ -8944,13 +8950,13 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="AB91" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC91" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD91" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8960,17 +8966,17 @@
       <c r="B92" s="6">
         <v>0.27800000000000002</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="11">
         <v>6625</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H92" s="9">
         <v>41244</v>
@@ -8982,7 +8988,7 @@
         <v>155</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M92" s="6">
         <v>3.5999999999999997E-2</v>
@@ -9030,13 +9036,13 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="AB92" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC92" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD92" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
@@ -9046,17 +9052,17 @@
       <c r="C93" s="4">
         <v>1219589</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="12">
         <v>37292</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F93" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G93" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H93" s="3">
         <v>36861</v>
@@ -9065,7 +9071,7 @@
         <v>518964</v>
       </c>
       <c r="L93" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M93" s="1">
         <v>7.5999999999999998E-2</v>
@@ -9110,13 +9116,13 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="AB93" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC93" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD93" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
@@ -9126,17 +9132,17 @@
       <c r="C94" s="4">
         <v>1202266</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="12">
         <v>32716</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F94" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G94" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H94" s="3">
         <v>37226</v>
@@ -9145,7 +9151,7 @@
         <v>510791</v>
       </c>
       <c r="L94" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M94" s="1">
         <v>7.8E-2</v>
@@ -9190,13 +9196,13 @@
         <v>0.8</v>
       </c>
       <c r="AB94" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC94" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD94" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
@@ -9206,17 +9212,17 @@
       <c r="C95" s="4">
         <v>1216751</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="12">
         <v>31236</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F95" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G95" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H95" s="3">
         <v>37591</v>
@@ -9225,7 +9231,7 @@
         <v>510390</v>
       </c>
       <c r="L95" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M95" s="1">
         <v>7.9000000000000001E-2</v>
@@ -9270,13 +9276,13 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="AB95" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD95" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
@@ -9286,17 +9292,17 @@
       <c r="C96" s="4">
         <v>1237429</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="12">
         <v>33691</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G96" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H96" s="3">
         <v>37956</v>
@@ -9308,7 +9314,7 @@
         <v>506237</v>
       </c>
       <c r="L96" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M96" s="1">
         <v>0.08</v>
@@ -9353,13 +9359,13 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="AB96" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC96" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD96" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
@@ -9369,17 +9375,17 @@
       <c r="C97" s="4">
         <v>1259655</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="12">
         <v>36442</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F97" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G97" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H97" s="3">
         <v>38322</v>
@@ -9391,7 +9397,7 @@
         <v>522488</v>
       </c>
       <c r="L97" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M97" s="1">
         <v>0.08</v>
@@ -9436,13 +9442,13 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="AB97" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC97" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD97" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
@@ -9455,17 +9461,17 @@
       <c r="C98" s="4">
         <v>1238181</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="12">
         <v>35781</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G98" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H98" s="3">
         <v>38687</v>
@@ -9477,7 +9483,7 @@
         <v>520541</v>
       </c>
       <c r="L98" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M98" s="1">
         <v>8.2000000000000003E-2</v>
@@ -9525,13 +9531,13 @@
         <v>0.86</v>
       </c>
       <c r="AB98" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC98" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD98" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
@@ -9544,17 +9550,17 @@
       <c r="C99" s="4">
         <v>1231302</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="12">
         <v>34102</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G99" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H99" s="3">
         <v>39052</v>
@@ -9566,7 +9572,7 @@
         <v>519807</v>
       </c>
       <c r="L99" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M99" s="1">
         <v>8.2000000000000003E-2</v>
@@ -9614,13 +9620,13 @@
         <v>0.871</v>
       </c>
       <c r="AB99" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC99" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD99" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
@@ -9633,17 +9639,17 @@
       <c r="C100" s="4">
         <v>1251136</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="12">
         <v>34095</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H100" s="3">
         <v>39417</v>
@@ -9655,7 +9661,7 @@
         <v>515198</v>
       </c>
       <c r="L100" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M100" s="1">
         <v>8.2000000000000003E-2</v>
@@ -9703,13 +9709,13 @@
         <v>0.88</v>
       </c>
       <c r="AB100" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC100" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD100" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
@@ -9722,17 +9728,17 @@
       <c r="C101" s="4">
         <v>1206916</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="12">
         <v>37972</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F101" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H101" s="3">
         <v>39783</v>
@@ -9744,7 +9750,7 @@
         <v>495352</v>
       </c>
       <c r="L101" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M101" s="1">
         <v>8.5999999999999993E-2</v>
@@ -9792,13 +9798,13 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="AB101" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC101" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD101" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
@@ -9811,17 +9817,17 @@
       <c r="C102" s="4">
         <v>1100650</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="12">
         <v>39473</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F102" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G102" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H102" s="3">
         <v>40148</v>
@@ -9833,7 +9839,7 @@
         <v>472174</v>
       </c>
       <c r="L102" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M102" s="1">
         <v>9.5000000000000001E-2</v>
@@ -9881,13 +9887,13 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="AB102" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC102" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AD102" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
@@ -9900,17 +9906,17 @@
       <c r="C103" s="4">
         <v>1170715</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="12">
         <v>43118</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F103" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H103" s="3">
         <v>40513</v>
@@ -9922,7 +9928,7 @@
         <v>499092</v>
       </c>
       <c r="L103" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M103" s="1">
         <v>9.6000000000000002E-2</v>
@@ -9970,13 +9976,13 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="AB103" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC103" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AD103" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
@@ -9986,17 +9992,17 @@
       <c r="B104" s="1">
         <v>0.48399999999999999</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="12">
         <v>46204</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F104" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H104" s="3">
         <v>40878</v>
@@ -10008,7 +10014,7 @@
         <v>461468</v>
       </c>
       <c r="L104" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M104" s="1">
         <v>0.1</v>
@@ -10056,13 +10062,13 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="AB104" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC104" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AD104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
@@ -10072,17 +10078,17 @@
       <c r="B105" s="1">
         <v>0.49399999999999999</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="12">
         <v>46548</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F105" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H105" s="3">
         <v>41244</v>
@@ -10097,7 +10103,7 @@
         <v>451501</v>
       </c>
       <c r="L105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M105" s="1">
         <v>0.10100000000000001</v>
@@ -10145,13 +10151,13 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="AB105" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC105" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD105" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10161,17 +10167,17 @@
       <c r="C106" s="10">
         <v>1558112</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="11">
         <v>1772</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H106" s="9">
         <v>36861</v>
@@ -10180,7 +10186,7 @@
         <v>619265</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M106" s="6">
         <v>5.3999999999999999E-2</v>
@@ -10225,13 +10231,13 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="AB106" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC106" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD106" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10241,17 +10247,17 @@
       <c r="C107" s="10">
         <v>1558013</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="11">
         <v>2100</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H107" s="9">
         <v>37226</v>
@@ -10260,7 +10266,7 @@
         <v>626014</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M107" s="6">
         <v>5.7000000000000002E-2</v>
@@ -10305,13 +10311,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="AB107" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC107" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD107" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10321,17 +10327,17 @@
       <c r="C108" s="10">
         <v>1557665</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="11">
         <v>2373</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H108" s="9">
         <v>37591</v>
@@ -10340,7 +10346,7 @@
         <v>623098</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M108" s="6">
         <v>0.06</v>
@@ -10385,13 +10391,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="AB108" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC108" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD108" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10401,17 +10407,17 @@
       <c r="C109" s="10">
         <v>1604973</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="11">
         <v>2975</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H109" s="9">
         <v>37956</v>
@@ -10423,7 +10429,7 @@
         <v>645323</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M109" s="6">
         <v>5.6000000000000001E-2</v>
@@ -10468,13 +10474,13 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="AB109" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC109" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD109" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="AD109" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10484,17 +10490,17 @@
       <c r="C110" s="10">
         <v>1602963</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="11">
         <v>4109</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H110" s="9">
         <v>38322</v>
@@ -10506,7 +10512,7 @@
         <v>647392</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M110" s="6">
         <v>5.1999999999999998E-2</v>
@@ -10551,13 +10557,13 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="AB110" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC110" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD110" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10570,17 +10576,17 @@
       <c r="C111" s="10">
         <v>1615688</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="11">
         <v>5338</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H111" s="9">
         <v>38687</v>
@@ -10592,7 +10598,7 @@
         <v>651712</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M111" s="6">
         <v>5.1999999999999998E-2</v>
@@ -10640,13 +10646,13 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="AB111" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC111" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AD111" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10659,17 +10665,17 @@
       <c r="C112" s="10">
         <v>1669618</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="11">
         <v>6948</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H112" s="9">
         <v>39052</v>
@@ -10681,7 +10687,7 @@
         <v>670673</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M112" s="6">
         <v>5.2999999999999999E-2</v>
@@ -10729,13 +10735,13 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="AB112" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC112" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AD112" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10748,17 +10754,17 @@
       <c r="C113" s="10">
         <v>1667598</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="11">
         <v>9145</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H113" s="9">
         <v>39417</v>
@@ -10770,7 +10776,7 @@
         <v>672591</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M113" s="6">
         <v>5.3999999999999999E-2</v>
@@ -10818,13 +10824,13 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="AB113" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC113" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD113" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10837,17 +10843,17 @@
       <c r="C114" s="10">
         <v>1715639</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="11">
         <v>11700</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H114" s="9">
         <v>39783</v>
@@ -10859,7 +10865,7 @@
         <v>688483</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M114" s="6">
         <v>5.0999999999999997E-2</v>
@@ -10907,13 +10913,13 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="AB114" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC114" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD114" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10926,17 +10932,17 @@
       <c r="C115" s="10">
         <v>1574368</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="11">
         <v>8616</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H115" s="9">
         <v>40148</v>
@@ -10948,7 +10954,7 @@
         <v>646915</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M115" s="6">
         <v>6.2E-2</v>
@@ -10996,13 +11002,13 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="AB115" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC115" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD115" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11015,17 +11021,17 @@
       <c r="C116" s="10">
         <v>1740776</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="11">
         <v>10710</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H116" s="9">
         <v>40513</v>
@@ -11037,7 +11043,7 @@
         <v>702292</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M116" s="6">
         <v>6.3E-2</v>
@@ -11085,13 +11091,13 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="AB116" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC116" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AD116" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11101,17 +11107,17 @@
       <c r="B117" s="6">
         <v>0.46899999999999997</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="11">
         <v>13324</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H117" s="9">
         <v>40878</v>
@@ -11123,7 +11129,7 @@
         <v>730970</v>
       </c>
       <c r="L117" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M117" s="6">
         <v>6.0999999999999999E-2</v>
@@ -11171,13 +11177,13 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="AB117" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC117" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AD117" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11187,17 +11193,17 @@
       <c r="B118" s="6">
         <v>0.54100000000000004</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="11">
         <v>14091</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H118" s="9">
         <v>41244</v>
@@ -11209,7 +11215,7 @@
         <v>111</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M118" s="6">
         <v>6.3E-2</v>
@@ -11257,13 +11263,13 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="AB118" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC118" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD118" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
@@ -11273,17 +11279,17 @@
       <c r="C119" s="4">
         <v>39050</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="12">
         <v>35639</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G119" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H119" s="3">
         <v>36861</v>
@@ -11292,7 +11298,7 @@
         <v>25005</v>
       </c>
       <c r="L119" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M119" s="1">
         <v>9.9000000000000005E-2</v>
@@ -11337,13 +11343,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="AB119" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC119" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AD119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
@@ -11353,17 +11359,17 @@
       <c r="C120" s="4">
         <v>42963</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="12">
         <v>36328</v>
       </c>
       <c r="E120" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G120" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H120" s="3">
         <v>37226</v>
@@ -11372,7 +11378,7 @@
         <v>26557</v>
       </c>
       <c r="L120" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M120" s="1">
         <v>0.10299999999999999</v>
@@ -11417,13 +11423,13 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="AB120" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC120" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AD120" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
@@ -11433,17 +11439,17 @@
       <c r="C121" s="4">
         <v>40718</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="12">
         <v>39350</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G121" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H121" s="3">
         <v>37591</v>
@@ -11452,7 +11458,7 @@
         <v>25888</v>
       </c>
       <c r="L121" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M121" s="1">
         <v>0.106</v>
@@ -11497,13 +11503,13 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="AB121" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AD121" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
@@ -11513,17 +11519,17 @@
       <c r="C122" s="4">
         <v>40205</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="12">
         <v>45589</v>
       </c>
       <c r="E122" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F122" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G122" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H122" s="3">
         <v>37956</v>
@@ -11535,7 +11541,7 @@
         <v>25996</v>
       </c>
       <c r="L122" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M122" s="1">
         <v>0.109</v>
@@ -11580,13 +11586,13 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="AB122" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC122" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AD122" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
@@ -11596,17 +11602,17 @@
       <c r="C123" s="4">
         <v>40392</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="12">
         <v>50642</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F123" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G123" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H123" s="3">
         <v>38322</v>
@@ -11618,7 +11624,7 @@
         <v>26090</v>
       </c>
       <c r="L123" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M123" s="1">
         <v>0.11</v>
@@ -11663,13 +11669,13 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="AB123" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC123" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD123" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
@@ -11682,17 +11688,17 @@
       <c r="C124" s="4">
         <v>41375</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="12">
         <v>51734</v>
       </c>
       <c r="E124" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F124" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G124" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H124" s="3">
         <v>38687</v>
@@ -11704,7 +11710,7 @@
         <v>25941</v>
       </c>
       <c r="L124" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M124" s="1">
         <v>0.109</v>
@@ -11752,13 +11758,13 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="AB124" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC124" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD124" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
@@ -11771,17 +11777,17 @@
       <c r="C125" s="4">
         <v>41877</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="12">
         <v>54140</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F125" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H125" s="3">
         <v>39052</v>
@@ -11793,7 +11799,7 @@
         <v>27084</v>
       </c>
       <c r="L125" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M125" s="1">
         <v>0.104</v>
@@ -11841,13 +11847,13 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="AB125" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC125" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AD125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
@@ -11860,17 +11866,17 @@
       <c r="C126" s="4">
         <v>38019</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="12">
         <v>59664</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G126" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H126" s="3">
         <v>39417</v>
@@ -11882,7 +11888,7 @@
         <v>25760</v>
       </c>
       <c r="L126" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M126" s="1">
         <v>0.10199999999999999</v>
@@ -11930,13 +11936,13 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="AB126" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC126" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AD126" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
@@ -11949,17 +11955,17 @@
       <c r="C127" s="4">
         <v>40392</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="12">
         <v>68555</v>
       </c>
       <c r="E127" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F127" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G127" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H127" s="3">
         <v>39783</v>
@@ -11971,7 +11977,7 @@
         <v>26773</v>
       </c>
       <c r="L127" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M127" s="1">
         <v>0.10299999999999999</v>
@@ -12019,13 +12025,13 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="AB127" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC127" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD127" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
@@ -12038,17 +12044,17 @@
       <c r="C128" s="4">
         <v>41598</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="12">
         <v>65790</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F128" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G128" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H128" s="3">
         <v>40148</v>
@@ -12060,7 +12066,7 @@
         <v>26968</v>
       </c>
       <c r="L128" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M128" s="1">
         <v>0.11</v>
@@ -12108,13 +12114,13 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="AB128" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC128" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AD128" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
@@ -12127,17 +12133,17 @@
       <c r="C129" s="4">
         <v>38757</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="12">
         <v>70174</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F129" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G129" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H129" s="3">
         <v>40513</v>
@@ -12149,7 +12155,7 @@
         <v>26199</v>
       </c>
       <c r="L129" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M129" s="1">
         <v>0.109</v>
@@ -12197,13 +12203,13 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="AB129" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC129" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD129" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
@@ -12213,17 +12219,17 @@
       <c r="B130" s="1">
         <v>0.28899999999999998</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="12">
         <v>83270</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F130" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G130" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H130" s="3">
         <v>40878</v>
@@ -12235,7 +12241,7 @@
         <v>25375</v>
       </c>
       <c r="L130" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M130" s="1">
         <v>0.11</v>
@@ -12283,13 +12289,13 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="AB130" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC130" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD130" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
@@ -12299,17 +12305,17 @@
       <c r="B131" s="1">
         <v>0.29099999999999998</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="12">
         <v>78929</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F131" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G131" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H131" s="3">
         <v>41244</v>
@@ -12324,7 +12330,7 @@
         <v>25500</v>
       </c>
       <c r="L131" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M131" s="1">
         <v>0.113</v>
@@ -12372,13 +12378,13 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="AB131" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC131" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AD131" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12388,17 +12394,17 @@
       <c r="C132" s="10">
         <v>5713560</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="11">
         <v>36467</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H132" s="9">
         <v>36861</v>
@@ -12407,7 +12413,7 @@
         <v>2273332</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M132" s="6">
         <v>0.13600000000000001</v>
@@ -12452,13 +12458,13 @@
         <v>0.79100000000000004</v>
       </c>
       <c r="AB132" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC132" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AD132" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12468,17 +12474,17 @@
       <c r="C133" s="10">
         <v>5601405</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="11">
         <v>37286</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H133" s="9">
         <v>37226</v>
@@ -12487,7 +12493,7 @@
         <v>2230817</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M133" s="6">
         <v>0.14199999999999999</v>
@@ -12532,13 +12538,13 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="AB133" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC133" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AD133" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12548,17 +12554,17 @@
       <c r="C134" s="10">
         <v>5650950</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="11">
         <v>38175</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H134" s="9">
         <v>37591</v>
@@ -12567,7 +12573,7 @@
         <v>2255957</v>
       </c>
       <c r="L134" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M134" s="6">
         <v>0.151</v>
@@ -12612,13 +12618,13 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="AB134" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC134" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AD134" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12628,17 +12634,17 @@
       <c r="C135" s="10">
         <v>5681664</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="11">
         <v>39682</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H135" s="9">
         <v>37956</v>
@@ -12650,7 +12656,7 @@
         <v>2261151</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M135" s="6">
         <v>0.156</v>
@@ -12695,13 +12701,13 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="AB135" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC135" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AD135" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12711,17 +12717,17 @@
       <c r="C136" s="10">
         <v>5790765</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="11">
         <v>41929</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H136" s="9">
         <v>38322</v>
@@ -12733,7 +12739,7 @@
         <v>2307819</v>
       </c>
       <c r="L136" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M136" s="6">
         <v>0.157</v>
@@ -12778,13 +12784,13 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="AB136" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC136" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AD136" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12797,17 +12803,17 @@
       <c r="C137" s="10">
         <v>5826394</v>
       </c>
-      <c r="D137" s="8">
+      <c r="D137" s="11">
         <v>44314</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H137" s="9">
         <v>38687</v>
@@ -12819,7 +12825,7 @@
         <v>2318861</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M137" s="6">
         <v>0.158</v>
@@ -12867,13 +12873,13 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="AB137" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC137" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AD137" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12886,17 +12892,17 @@
       <c r="C138" s="10">
         <v>5737616</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="11">
         <v>46444</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H138" s="9">
         <v>39052</v>
@@ -12908,7 +12914,7 @@
         <v>2296686</v>
       </c>
       <c r="L138" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M138" s="6">
         <v>0.159</v>
@@ -12956,13 +12962,13 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="AB138" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC138" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AD138" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12975,17 +12981,17 @@
       <c r="C139" s="10">
         <v>5828697</v>
       </c>
-      <c r="D139" s="8">
+      <c r="D139" s="11">
         <v>48070</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H139" s="9">
         <v>39417</v>
@@ -12997,7 +13003,7 @@
         <v>2337014</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M139" s="6">
         <v>0.161</v>
@@ -13045,13 +13051,13 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="AB139" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC139" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AD139" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="140" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -13064,17 +13070,17 @@
       <c r="C140" s="10">
         <v>5656839</v>
       </c>
-      <c r="D140" s="8">
+      <c r="D140" s="11">
         <v>48407</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H140" s="9">
         <v>39783</v>
@@ -13086,7 +13092,7 @@
         <v>2277034</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M140" s="6">
         <v>0.16500000000000001</v>
@@ -13134,13 +13140,13 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="AB140" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC140" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AD140" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -13153,17 +13159,17 @@
       <c r="C141" s="10">
         <v>5311840</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D141" s="11">
         <v>46999</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H141" s="9">
         <v>40148</v>
@@ -13175,7 +13181,7 @@
         <v>2164458</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M141" s="6">
         <v>0.17699999999999999</v>
@@ -13223,13 +13229,13 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="AB141" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC141" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AD141" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -13242,17 +13248,17 @@
       <c r="C142" s="10">
         <v>5433057</v>
       </c>
-      <c r="D142" s="8">
+      <c r="D142" s="11">
         <v>48358</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H142" s="9">
         <v>40513</v>
@@ -13264,7 +13270,7 @@
         <v>2215504</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M142" s="6">
         <v>0.17699999999999999</v>
@@ -13312,13 +13318,13 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="AB142" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC142" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AD142" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -13328,17 +13334,17 @@
       <c r="B143" s="6">
         <v>0.46500000000000002</v>
       </c>
-      <c r="D143" s="8">
+      <c r="D143" s="11">
         <v>49855</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H143" s="9">
         <v>40878</v>
@@ -13350,7 +13356,7 @@
         <v>2191193</v>
       </c>
       <c r="L143" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M143" s="6">
         <v>0.17699999999999999</v>
@@ -13398,13 +13404,13 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="AB143" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC143" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AD143" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -13414,17 +13420,17 @@
       <c r="B144" s="6">
         <v>0.46400000000000002</v>
       </c>
-      <c r="D144" s="8">
+      <c r="D144" s="11">
         <v>51755</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H144" s="9">
         <v>41244</v>
@@ -13439,7 +13445,7 @@
         <v>2132446</v>
       </c>
       <c r="L144" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M144" s="6">
         <v>0.17899999999999999</v>
@@ -13487,13 +13493,13 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="AB144" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC144" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AD144" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.2">
@@ -13503,17 +13509,17 @@
       <c r="C145" s="4">
         <v>13887</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="12">
         <v>535</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F145" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G145" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H145" s="3">
         <v>36861</v>
@@ -13522,7 +13528,7 @@
         <v>9865</v>
       </c>
       <c r="L145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P145" s="1">
         <v>6.0999999999999999E-2</v>
@@ -13561,10 +13567,10 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="AB145" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC145" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.2">
@@ -13574,17 +13580,17 @@
       <c r="C146" s="4">
         <v>12563</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="12">
         <v>538</v>
       </c>
       <c r="E146" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F146" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G146" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H146" s="3">
         <v>37226</v>
@@ -13593,7 +13599,7 @@
         <v>9690</v>
       </c>
       <c r="L146" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P146" s="1">
         <v>0.06</v>
@@ -13632,10 +13638,10 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="AB146" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC146" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.2">
@@ -13645,17 +13651,17 @@
       <c r="C147" s="4">
         <v>11932</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="12">
         <v>502</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G147" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H147" s="3">
         <v>37591</v>
@@ -13664,7 +13670,7 @@
         <v>9692</v>
       </c>
       <c r="L147" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P147" s="1">
         <v>5.8999999999999997E-2</v>
@@ -13703,10 +13709,10 @@
         <v>0.34599999999999997</v>
       </c>
       <c r="AB147" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC147" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
@@ -13716,17 +13722,17 @@
       <c r="C148" s="4">
         <v>10627</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="12">
         <v>452</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F148" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G148" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H148" s="3">
         <v>37956</v>
@@ -13738,7 +13744,7 @@
         <v>9500</v>
       </c>
       <c r="L148" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P148" s="1">
         <v>5.8000000000000003E-2</v>
@@ -13777,10 +13783,10 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="AB148" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC148" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.2">
@@ -13790,17 +13796,17 @@
       <c r="C149" s="4">
         <v>9927</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="12">
         <v>457</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F149" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G149" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H149" s="3">
         <v>38322</v>
@@ -13812,7 +13818,7 @@
         <v>9269</v>
       </c>
       <c r="L149" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P149" s="1">
         <v>5.8000000000000003E-2</v>
@@ -13851,10 +13857,10 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="AB149" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC149" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.2">
@@ -13867,17 +13873,17 @@
       <c r="C150" s="4">
         <v>10774</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="12">
         <v>453</v>
       </c>
       <c r="E150" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F150" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G150" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H150" s="3">
         <v>38687</v>
@@ -13889,7 +13895,7 @@
         <v>9685</v>
       </c>
       <c r="L150" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O150">
         <v>216</v>
@@ -13931,10 +13937,10 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="AB150" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC150" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.2">
@@ -13947,17 +13953,17 @@
       <c r="C151" s="4">
         <v>10345</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="12">
         <v>428</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F151" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G151" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H151" s="3">
         <v>39052</v>
@@ -13969,7 +13975,7 @@
         <v>9714</v>
       </c>
       <c r="L151" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O151">
         <v>216</v>
@@ -14011,10 +14017,10 @@
         <v>0.33900000000000002</v>
       </c>
       <c r="AB151" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC151" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.2">
@@ -14027,17 +14033,17 @@
       <c r="C152" s="4">
         <v>10213</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="12">
         <v>415</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F152" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G152" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H152" s="3">
         <v>39417</v>
@@ -14049,7 +14055,7 @@
         <v>9438</v>
       </c>
       <c r="L152" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O152">
         <v>256</v>
@@ -14088,10 +14094,10 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="AB152" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC152" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.2">
@@ -14104,17 +14110,17 @@
       <c r="C153" s="4">
         <v>8148</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="12">
         <v>345</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F153" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G153" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H153" s="3">
         <v>39783</v>
@@ -14126,7 +14132,7 @@
         <v>8678</v>
       </c>
       <c r="L153" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O153">
         <v>256</v>
@@ -14165,10 +14171,10 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="AB153" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC153" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.2">
@@ -14181,17 +14187,17 @@
       <c r="C154" s="4">
         <v>8735</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="12">
         <v>633</v>
       </c>
       <c r="E154" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G154" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H154" s="3">
         <v>40148</v>
@@ -14203,7 +14209,7 @@
         <v>8747</v>
       </c>
       <c r="L154" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O154">
         <v>270</v>
@@ -14242,10 +14248,10 @@
         <v>0.33400000000000002</v>
       </c>
       <c r="AB154" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC154" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.2">
@@ -14258,17 +14264,17 @@
       <c r="C155" s="4">
         <v>9428</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="12">
         <v>723</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F155" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G155" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H155" s="3">
         <v>40513</v>
@@ -14280,7 +14286,7 @@
         <v>9000</v>
       </c>
       <c r="L155" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O155">
         <v>242</v>
@@ -14319,10 +14325,10 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="AB155" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC155" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.2">
@@ -14332,17 +14338,17 @@
       <c r="B156" s="1">
         <v>0.34300000000000003</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="12">
         <v>820</v>
       </c>
       <c r="E156" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F156" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G156" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H156" s="3">
         <v>40878</v>
@@ -14354,7 +14360,7 @@
         <v>9312</v>
       </c>
       <c r="L156" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O156">
         <v>242</v>
@@ -14393,10 +14399,10 @@
         <v>0.33</v>
       </c>
       <c r="AB156" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC156" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.2">
@@ -14406,17 +14412,17 @@
       <c r="B157" s="1">
         <v>0.34499999999999997</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="12">
         <v>909</v>
       </c>
       <c r="E157" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F157" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G157" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H157" s="3">
         <v>41244</v>
@@ -14428,7 +14434,7 @@
         <v>168</v>
       </c>
       <c r="L157" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O157">
         <v>242</v>
@@ -14467,10 +14473,10 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="AB157" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC157" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
